--- a/static/PG_2024.xlsx
+++ b/static/PG_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eigene Dateien F\Golf\Plauschgruppe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CC6F49-0A6C-4257-A5E5-6C04453A122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7893D6F-AE24-4470-A70A-7761413FB252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="1500" windowWidth="13200" windowHeight="12780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16845" windowHeight="14445" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -1744,7 +1744,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1812,8 +1812,12 @@
         <v>32</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="19">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
@@ -1822,7 +1826,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18">
         <f t="shared" ref="K3:K13" si="0">SUM(B3:J3)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
